--- a/experiments/expbiblio/analysis/live/square/shape.xlsx
+++ b/experiments/expbiblio/analysis/live/square/shape.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="24">
   <si>
     <t>B102</t>
   </si>
@@ -263,11 +263,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="192051968"/>
-        <c:axId val="192051392"/>
+        <c:axId val="297454400"/>
+        <c:axId val="297454976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="192051968"/>
+        <c:axId val="297454400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -277,12 +277,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192051392"/>
+        <c:crossAx val="297454976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="192051392"/>
+        <c:axId val="297454976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -293,14 +293,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192051968"/>
+        <c:crossAx val="297454400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -444,11 +443,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="166869184"/>
-        <c:axId val="9387328"/>
+        <c:axId val="297456704"/>
+        <c:axId val="297457280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="166869184"/>
+        <c:axId val="297456704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -458,12 +457,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="9387328"/>
+        <c:crossAx val="297457280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="9387328"/>
+        <c:axId val="297457280"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -474,7 +473,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166869184"/>
+        <c:crossAx val="297456704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -718,11 +717,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="169765120"/>
-        <c:axId val="169764544"/>
+        <c:axId val="297459008"/>
+        <c:axId val="289980416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="169765120"/>
+        <c:axId val="297459008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -733,15 +732,15 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169764544"/>
+        <c:crossAx val="289980416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="169764544"/>
+        <c:axId val="289980416"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
-          <c:max val="50"/>
+          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -750,14 +749,24 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169765120"/>
+        <c:crossAx val="297459008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7239467662696061E-2"/>
+          <c:y val="0.63795622800513163"/>
+          <c:w val="0.18160668618345785"/>
+          <c:h val="0.24351953203159021"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1101,11 +1110,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="169786112"/>
-        <c:axId val="169785536"/>
+        <c:axId val="289982720"/>
+        <c:axId val="289983296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="169786112"/>
+        <c:axId val="289982720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1115,12 +1124,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169785536"/>
+        <c:crossAx val="289983296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="169785536"/>
+        <c:axId val="289983296"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1131,7 +1140,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169786112"/>
+        <c:crossAx val="289982720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1379,11 +1388,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="197216512"/>
-        <c:axId val="197217088"/>
+        <c:axId val="289985600"/>
+        <c:axId val="289986176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="197216512"/>
+        <c:axId val="289985600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -1394,12 +1403,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197217088"/>
+        <c:crossAx val="289986176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="197217088"/>
+        <c:axId val="289986176"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="50"/>
@@ -1411,7 +1420,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197216512"/>
+        <c:crossAx val="289985600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1449,9 +1458,19 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.711867431044804E-2"/>
+          <c:y val="7.6387251593550809E-2"/>
+          <c:w val="0.93787280996926681"/>
+          <c:h val="0.90031934593783713"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1467,9 +1486,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
           <c:xVal>
             <c:numRef>
               <c:f>Feuil5!$B$3:$B$12</c:f>
@@ -1548,7 +1569,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1564,9 +1585,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
           <c:xVal>
             <c:numRef>
               <c:f>Feuil5!$F$3:$F$12</c:f>
@@ -1645,7 +1668,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1655,26 +1678,28 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="197588608"/>
-        <c:axId val="197588032"/>
+        <c:axId val="293494784"/>
+        <c:axId val="293495360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="197588608"/>
+        <c:axId val="293494784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197588032"/>
+        <c:crossAx val="293495360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="197588032"/>
+        <c:axId val="293495360"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1685,14 +1710,316 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197588608"/>
+        <c:crossAx val="293494784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.4209767283261261E-2"/>
+          <c:y val="0.19874187196341095"/>
+          <c:w val="0.17231696472945998"/>
+          <c:h val="0.26996809825001383"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-CH"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.7118637413913004E-2"/>
+          <c:y val="9.3616044631192399E-2"/>
+          <c:w val="0.94316982412454853"/>
+          <c:h val="0.86489471887762903"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil3!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>finger print</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil3!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil3!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil3!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>trilateration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil3!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil3!$G$3:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="240348544"/>
+        <c:axId val="240349120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="240348544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="18"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="240349120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="240349120"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="7"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="240348544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7239467662696061E-2"/>
+          <c:y val="0.63795622800513163"/>
+          <c:w val="0.18516793974471135"/>
+          <c:h val="0.29209950213622399"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1818,7 +2145,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
@@ -1884,16 +2211,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>739140</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1912,6 +2239,38 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>746760</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1919,12 +2278,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.515</cdr:x>
-      <cdr:y>0.49583</cdr:y>
+      <cdr:x>0.7064</cdr:x>
+      <cdr:y>0.46838</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.55667</cdr:x>
-      <cdr:y>0.56806</cdr:y>
+      <cdr:x>0.7523</cdr:x>
+      <cdr:y>0.58314</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1933,12 +2292,21 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2354580" y="1360170"/>
-          <a:ext cx="190500" cy="198120"/>
+          <a:off x="5258981" y="1524000"/>
+          <a:ext cx="341720" cy="373380"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="accent3">
+            <a:lumMod val="75000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
       </cdr:spPr>
       <cdr:style>
         <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
@@ -1959,6 +2327,665 @@
       <cdr:txBody>
         <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.67827</cdr:x>
+      <cdr:y>0.40203</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.77687</cdr:x>
+      <cdr:y>0.64871</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="Ellipse 2"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5049520" y="1308100"/>
+          <a:ext cx="734060" cy="802640"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.62811</cdr:x>
+      <cdr:y>0.27635</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.82497</cdr:x>
+      <cdr:y>0.77752</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="Ellipse 3"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4676140" y="899160"/>
+          <a:ext cx="1465580" cy="1630680"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.03893</cdr:x>
+      <cdr:y>0.51152</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98258</cdr:x>
+      <cdr:y>0.63364</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Rectangle 1"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="289560" y="1691640"/>
+          <a:ext cx="7018020" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.03654</cdr:x>
+      <cdr:y>0.44163</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98019</cdr:x>
+      <cdr:y>0.69124</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="Rectangle 2"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="271780" y="1460500"/>
+          <a:ext cx="7018020" cy="825500"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.03757</cdr:x>
+      <cdr:y>0.31951</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98122</cdr:x>
+      <cdr:y>0.82028</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="Rectangle 3"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="279400" y="1056640"/>
+          <a:ext cx="7018020" cy="1656080"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:endParaRPr lang="fr-FR"/>
         </a:p>
@@ -2624,11 +3651,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1">
@@ -3138,10 +4169,14 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1">
@@ -3182,11 +4217,11 @@
         <v>6.9</v>
       </c>
       <c r="I3">
-        <f>(F3+B3)/2</f>
+        <f t="shared" ref="I3:I12" si="0">(F3+B3)/2</f>
         <v>15.600000000000001</v>
       </c>
       <c r="J3">
-        <f>(G3+C3)/2</f>
+        <f t="shared" ref="J3:J12" si="1">(G3+C3)/2</f>
         <v>5</v>
       </c>
     </row>
@@ -3210,11 +4245,11 @@
         <v>7.5</v>
       </c>
       <c r="I4">
-        <f>(F4+B4)/2</f>
+        <f t="shared" si="0"/>
         <v>15.05</v>
       </c>
       <c r="J4">
-        <f>(G4+C4)/2</f>
+        <f t="shared" si="1"/>
         <v>6.3</v>
       </c>
     </row>
@@ -3238,11 +4273,11 @@
         <v>7.5</v>
       </c>
       <c r="I5">
-        <f>(F5+B5)/2</f>
+        <f t="shared" si="0"/>
         <v>13.2</v>
       </c>
       <c r="J5">
-        <f>(G5+C5)/2</f>
+        <f t="shared" si="1"/>
         <v>5.7</v>
       </c>
     </row>
@@ -3266,11 +4301,11 @@
         <v>7.3</v>
       </c>
       <c r="I6">
-        <f>(F6+B6)/2</f>
+        <f t="shared" si="0"/>
         <v>11.25</v>
       </c>
       <c r="J6">
-        <f>(G6+C6)/2</f>
+        <f t="shared" si="1"/>
         <v>7.4499999999999993</v>
       </c>
     </row>
@@ -3294,11 +4329,11 @@
         <v>7.5</v>
       </c>
       <c r="I7">
-        <f>(F7+B7)/2</f>
+        <f t="shared" si="0"/>
         <v>11.3</v>
       </c>
       <c r="J7">
-        <f>(G7+C7)/2</f>
+        <f t="shared" si="1"/>
         <v>7.85</v>
       </c>
     </row>
@@ -3322,11 +4357,11 @@
         <v>7.1</v>
       </c>
       <c r="I8">
-        <f>(F8+B8)/2</f>
+        <f t="shared" si="0"/>
         <v>9.5500000000000007</v>
       </c>
       <c r="J8">
-        <f>(G8+C8)/2</f>
+        <f t="shared" si="1"/>
         <v>7.3</v>
       </c>
     </row>
@@ -3350,11 +4385,11 @@
         <v>6.6</v>
       </c>
       <c r="I9">
-        <f>(F9+B9)/2</f>
+        <f t="shared" si="0"/>
         <v>8.1000000000000014</v>
       </c>
       <c r="J9">
-        <f>(G9+C9)/2</f>
+        <f t="shared" si="1"/>
         <v>6.75</v>
       </c>
     </row>
@@ -3378,11 +4413,11 @@
         <v>7.5</v>
       </c>
       <c r="I10">
-        <f>(F10+B10)/2</f>
+        <f t="shared" si="0"/>
         <v>5.35</v>
       </c>
       <c r="J10">
-        <f>(G10+C10)/2</f>
+        <f t="shared" si="1"/>
         <v>7.55</v>
       </c>
     </row>
@@ -3406,11 +4441,11 @@
         <v>9.9</v>
       </c>
       <c r="I11">
-        <f>(F11+B11)/2</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="J11">
-        <f>(G11+C11)/2</f>
+        <f t="shared" si="1"/>
         <v>8.9499999999999993</v>
       </c>
     </row>
@@ -3434,11 +4469,11 @@
         <v>11.3</v>
       </c>
       <c r="I12">
-        <f>(F12+B12)/2</f>
+        <f t="shared" si="0"/>
         <v>-0.30000000000000004</v>
       </c>
       <c r="J12">
-        <f>(G12+C12)/2</f>
+        <f t="shared" si="1"/>
         <v>10.45</v>
       </c>
     </row>
@@ -3734,10 +4769,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3976,274 +5011,14 @@
         <v>4.1300000000000008</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21">
-        <v>13.9</v>
-      </c>
-      <c r="C21">
-        <v>5.7</v>
-      </c>
-      <c r="E21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21">
-        <v>17.7</v>
-      </c>
-      <c r="G21">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22">
-        <v>15.1</v>
-      </c>
-      <c r="C22">
-        <v>4.2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>17.5</v>
-      </c>
-      <c r="G22">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>14</v>
-      </c>
-      <c r="C23">
-        <v>4.3</v>
-      </c>
-      <c r="E23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>17.5</v>
-      </c>
-      <c r="G23">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24">
-        <v>14.9</v>
-      </c>
-      <c r="C24">
-        <v>4.5</v>
-      </c>
-      <c r="E24" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>17.7</v>
-      </c>
-      <c r="G24">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25">
-        <v>12.3</v>
-      </c>
-      <c r="C25">
-        <v>5.2</v>
-      </c>
-      <c r="E25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>12</v>
-      </c>
-      <c r="G25">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="C26">
-        <v>3.6</v>
-      </c>
-      <c r="E26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="G26">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27">
-        <v>15.9</v>
-      </c>
-      <c r="C27">
-        <v>3.4</v>
-      </c>
-      <c r="E27" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27">
-        <v>14.4</v>
-      </c>
-      <c r="G27">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28">
-        <v>14.3</v>
-      </c>
-      <c r="C28">
-        <v>3.9</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28">
-        <v>17.8</v>
-      </c>
-      <c r="G28">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29">
-        <v>14.4</v>
-      </c>
-      <c r="C29">
-        <v>4.3</v>
-      </c>
-      <c r="E29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29">
-        <v>12.7</v>
-      </c>
-      <c r="G29">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30">
-        <v>13.6</v>
-      </c>
-      <c r="C30">
-        <v>3.9</v>
-      </c>
-      <c r="E30" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30">
-        <v>13.2</v>
-      </c>
-      <c r="G30">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31">
-        <v>12</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31">
-        <v>13.6</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32">
-        <v>9.1</v>
-      </c>
-      <c r="C32">
-        <v>5.2</v>
-      </c>
-      <c r="E32" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32">
-        <v>9.1</v>
-      </c>
-      <c r="G32">
-        <v>-4.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33">
-        <v>17.7</v>
-      </c>
-      <c r="C33">
-        <v>9.5</v>
-      </c>
-      <c r="E33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33">
-        <v>17.2</v>
-      </c>
-      <c r="G33">
-        <v>5.8</v>
       </c>
     </row>
   </sheetData>
